--- a/pruebas/Requerimientos/202421435086YDMICOCANOVASVICENTE.xlsx
+++ b/pruebas/Requerimientos/202421435086YDMICOCANOVASVICENTE.xlsx
@@ -5,16 +5,16 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\c#\csvToExcel\pruebas\Requerimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\C#\csvToExcel\pruebas\Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="0" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="EXPEDIDAS" sheetId="1" r:id="rId1"/>
-    <x:sheet name="RECIBIDAS" sheetId="7" r:id="rId2"/>
-    <x:sheet name="BIENES-INVERSION" sheetId="8" r:id="rId8"/>
+    <x:sheet name="EXPEDIDAS" sheetId="9" r:id="rId9"/>
+    <x:sheet name="RECIBIDAS" sheetId="7" r:id="rId7"/>
+    <x:sheet name="BIENES-INVERSION" sheetId="8" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="144525" calcMode="manual"/>
@@ -270,6 +270,10 @@
     <x:t>LR24</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Concepto 
 de gasto</x:t>
   </x:si>
@@ -353,8 +357,7 @@
     <x:t>PRESTAMOS C/P *0001306 SANTANDER</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">
-</x:t>
+    <x:t>hoja 3</x:t>
   </x:si>
   <x:si>
     <x:t>Tipo 
@@ -483,10 +486,11 @@
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
-      <x:scheme val="minor"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -793,7 +797,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="70">
+  <x:cellStyleXfs count="54">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -807,52 +811,43 @@
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="2" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="49" fontId="1" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -861,9 +856,6 @@
     <x:xf numFmtId="49" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -879,13 +871,13 @@
     <x:xf numFmtId="4" fontId="2" fillId="2" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -897,15 +889,9 @@
     <x:xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="49" fontId="1" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -924,42 +910,18 @@
     <x:xf numFmtId="4" fontId="4" fillId="2" borderId="20" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -996,22 +958,13 @@
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="156">
+  <x:cellXfs count="139">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1020,19 +973,13 @@
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1173,6 +1120,15 @@
     </x:xf>
     <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left"/>
+    </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
@@ -1212,12 +1168,6 @@
     <x:xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right"/>
-    </x:xf>
     <x:xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
@@ -1251,62 +1201,41 @@
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="4" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1314,7 +1243,15 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1326,10 +1263,6 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -1350,15 +1283,15 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1374,22 +1307,10 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -1414,44 +1335,12 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1527,11 +1416,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -1835,9 +1720,674 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr codeName="Hoja1">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:AQ9"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <x:selection activeCell="A4" sqref="A4"/>
+      <x:selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="11.424911" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="4" width="8.710938" style="54" customWidth="1"/>
+    <x:col min="5" max="5" width="14.425781" style="54" customWidth="1"/>
+    <x:col min="6" max="6" width="7.710938" style="54" customWidth="1"/>
+    <x:col min="7" max="7" width="30.710938" style="54" customWidth="1"/>
+    <x:col min="8" max="8" width="45.710938" style="54" customWidth="1"/>
+    <x:col min="9" max="9" width="11.710938" style="54" customWidth="1"/>
+    <x:col min="10" max="11" width="15.710938" style="55" customWidth="1"/>
+    <x:col min="12" max="12" width="12.425781" style="54" customWidth="1"/>
+    <x:col min="13" max="13" width="13.285156" style="55" customWidth="1"/>
+    <x:col min="14" max="17" width="18.710938" style="55" customWidth="1"/>
+    <x:col min="18" max="18" width="10.855469" style="54" customWidth="1"/>
+    <x:col min="19" max="20" width="16.710938" style="54" customWidth="1"/>
+    <x:col min="21" max="22" width="15.710938" style="54" customWidth="1"/>
+    <x:col min="23" max="23" width="4.855469" style="54" customWidth="1"/>
+    <x:col min="24" max="24" width="11.140625" style="54" customWidth="1"/>
+    <x:col min="25" max="25" width="15.710938" style="54" customWidth="1"/>
+    <x:col min="26" max="26" width="45.710938" style="54" customWidth="1"/>
+    <x:col min="27" max="27" width="15.710938" style="55" customWidth="1"/>
+    <x:col min="28" max="28" width="11.140625" style="55" customWidth="1"/>
+    <x:col min="29" max="29" width="17.285156" style="55" customWidth="1"/>
+    <x:col min="30" max="30" width="15.710938" style="55" customWidth="1"/>
+    <x:col min="31" max="31" width="17.285156" style="55" customWidth="1"/>
+    <x:col min="32" max="32" width="15.425781" style="55" customWidth="1"/>
+    <x:col min="33" max="33" width="23.140625" style="55" customWidth="1"/>
+    <x:col min="34" max="34" width="11.710938" style="54" customWidth="1"/>
+    <x:col min="35" max="35" width="6.140625" style="54" customWidth="1"/>
+    <x:col min="36" max="36" width="10.710938" style="54" customWidth="1"/>
+    <x:col min="37" max="38" width="18.710938" style="54" customWidth="1"/>
+    <x:col min="39" max="39" width="16.710938" style="0" customWidth="1"/>
+    <x:col min="40" max="40" width="15.710938" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="H1" s="54" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="AQ1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="120" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="121"/>
+      <x:c r="C2" s="85" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="87"/>
+      <x:c r="E2" s="86"/>
+      <x:c r="F2" s="122" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G2" s="120" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H2" s="121"/>
+      <x:c r="I2" s="122" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="J2" s="122" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="K2" s="122" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="L2" s="122" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="M2" s="122" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="N2" s="123" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="O2" s="124"/>
+      <x:c r="P2" s="124"/>
+      <x:c r="Q2" s="125"/>
+      <x:c r="R2" s="122" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S2" s="120" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="T2" s="121"/>
+      <x:c r="U2" s="122" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="V2" s="122" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="W2" s="120" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="X2" s="126"/>
+      <x:c r="Y2" s="121"/>
+      <x:c r="Z2" s="122" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="AA2" s="120" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="AB2" s="126"/>
+      <x:c r="AC2" s="126"/>
+      <x:c r="AD2" s="121"/>
+      <x:c r="AE2" s="120" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="AF2" s="126"/>
+      <x:c r="AG2" s="121"/>
+      <x:c r="AH2" s="120" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="AI2" s="121"/>
+      <x:c r="AJ2" s="120" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AK2" s="126"/>
+      <x:c r="AL2" s="121"/>
+      <x:c r="AM2" s="122" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="AN2" s="89" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AQ2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="127" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B3" s="128" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="129" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D3" s="103" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E3" s="104" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F3" s="130"/>
+      <x:c r="G3" s="131" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="H3" s="132" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I3" s="130"/>
+      <x:c r="J3" s="130"/>
+      <x:c r="K3" s="130"/>
+      <x:c r="L3" s="130"/>
+      <x:c r="M3" s="130"/>
+      <x:c r="N3" s="133" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="O3" s="134" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="P3" s="134" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="Q3" s="128" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="R3" s="130"/>
+      <x:c r="S3" s="127" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="T3" s="128" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U3" s="130"/>
+      <x:c r="V3" s="130"/>
+      <x:c r="W3" s="135" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="X3" s="134" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Y3" s="135" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="Z3" s="130"/>
+      <x:c r="AA3" s="131" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="AB3" s="136" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="AC3" s="136" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="AD3" s="132" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="AE3" s="127" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="AF3" s="133" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="AG3" s="137" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="AH3" s="127" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AI3" s="135" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="AJ3" s="127" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="AK3" s="133" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AL3" s="137" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="AM3" s="130"/>
+      <x:c r="AN3" s="117"/>
+      <x:c r="AQ3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B4" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C4" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D4" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E4" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F4" s="54" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I4" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K4" s="55">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M4" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N4" s="55">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q4" s="55" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R4" s="54" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S4" s="54" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="U4" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V4" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z4" s="46">
+        <x:v>29161</x:v>
+      </x:c>
+      <x:c r="AA4" s="55">
+        <x:v>2410</x:v>
+      </x:c>
+      <x:c r="AB4" s="55">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC4" s="46">
+        <x:v>5061</x:v>
+      </x:c>
+      <x:c r="AD4" s="46">
+        <x:v>5061</x:v>
+      </x:c>
+      <x:c r="AQ4" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B5" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C5" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D5" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E5" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F5" s="54" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I5" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K5" s="55">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M5" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N5" s="55">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q5" s="55" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="S5" s="54" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="U5" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V5" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z5" s="54">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="AA5" s="55">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="AB5" s="55">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC5" s="55">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD5" s="55">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AQ5" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B6" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C6" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D6" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F6" s="54" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I6" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K6" s="55">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M6" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N6" s="55">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="Q6" s="55" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R6" s="54" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S6" s="54" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="U6" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V6" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z6" s="54">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="AA6" s="55">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB6" s="55">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC6" s="55">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AD6" s="55">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AQ6" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B7" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C7" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D7" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E7" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F7" s="54" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I7" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K7" s="55">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M7" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N7" s="55">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q7" s="55" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R7" s="54" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S7" s="54" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="U7" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V7" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z7" s="54">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="AA7" s="55">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB7" s="55">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC7" s="55">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AD7" s="55">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AQ7" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B8" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C8" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D8" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F8" s="54" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I8" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K8" s="55">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M8" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N8" s="55">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q8" s="55" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R8" s="54" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S8" s="54" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="U8" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V8" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z8" s="54">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="AA8" s="55">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB8" s="55">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC8" s="55">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AD8" s="55">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AQ8" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B9" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C9" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D9" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F9" s="54" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I9" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K9" s="55">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="M9" s="83">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N9" s="55">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Q9" s="55" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R9" s="54" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S9" s="54" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="U9" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V9" s="54" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z9" s="54">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="AA9" s="55">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB9" s="55">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC9" s="55">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AD9" s="55">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AQ9" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="22">
+    <x:mergeCell ref="A2:B2"/>
+    <x:mergeCell ref="C2:E2"/>
+    <x:mergeCell ref="F2:F3"/>
+    <x:mergeCell ref="G2:H2"/>
+    <x:mergeCell ref="I2:I3"/>
+    <x:mergeCell ref="J2:J3"/>
+    <x:mergeCell ref="K2:K3"/>
+    <x:mergeCell ref="L2:L3"/>
+    <x:mergeCell ref="M2:M3"/>
+    <x:mergeCell ref="N2:Q2"/>
+    <x:mergeCell ref="R2:R3"/>
+    <x:mergeCell ref="S2:T2"/>
+    <x:mergeCell ref="U2:U3"/>
+    <x:mergeCell ref="V2:V3"/>
+    <x:mergeCell ref="W2:Y2"/>
+    <x:mergeCell ref="Z2:Z3"/>
+    <x:mergeCell ref="AA2:AD2"/>
+    <x:mergeCell ref="AE2:AG2"/>
+    <x:mergeCell ref="AH2:AI2"/>
+    <x:mergeCell ref="AJ2:AL2"/>
+    <x:mergeCell ref="AM2:AM3"/>
+    <x:mergeCell ref="AN2:AN3"/>
+  </x:mergeCells>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <x:pageSetup paperSize="9" scale="65" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:AK22"/>
@@ -1848,1282 +2398,1282 @@
       <x:selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="11.425781" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultColWidth="11.425781" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="4" width="8.710938" style="57" customWidth="1"/>
-    <x:col min="5" max="5" width="14.425781" style="57" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="7.570312" style="57" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="10.285156" style="57" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="15.710938" style="58" customWidth="1"/>
-    <x:col min="9" max="10" width="11.710938" style="51" customWidth="1"/>
-    <x:col min="11" max="11" width="6.710938" style="52" customWidth="1"/>
-    <x:col min="12" max="13" width="13.710938" style="52" customWidth="1"/>
-    <x:col min="14" max="14" width="5" style="51" bestFit="1" customWidth="1"/>
-    <x:col min="15" max="15" width="11.855469" style="51" bestFit="1" customWidth="1"/>
-    <x:col min="16" max="16" width="15.710938" style="52" customWidth="1"/>
-    <x:col min="17" max="17" width="45.710938" style="52" customWidth="1"/>
-    <x:col min="18" max="18" width="10.425781" style="51" bestFit="1" customWidth="1"/>
-    <x:col min="19" max="19" width="14" style="51" customWidth="1"/>
-    <x:col min="20" max="20" width="10.425781" style="51" customWidth="1"/>
-    <x:col min="21" max="22" width="15.710938" style="54" customWidth="1"/>
-    <x:col min="23" max="23" width="7" style="55" bestFit="1" customWidth="1"/>
-    <x:col min="24" max="24" width="15.710938" style="54" customWidth="1"/>
-    <x:col min="25" max="25" width="14.140625" style="55" bestFit="1" customWidth="1"/>
-    <x:col min="26" max="26" width="15.710938" style="54" customWidth="1"/>
-    <x:col min="27" max="27" width="11.710938" style="51" customWidth="1"/>
-    <x:col min="28" max="28" width="15.710938" style="54" customWidth="1"/>
-    <x:col min="29" max="29" width="15.710938" style="51" customWidth="1"/>
-    <x:col min="30" max="30" width="35.710938" style="52" customWidth="1"/>
-    <x:col min="31" max="32" width="13.855469" style="58" customWidth="1"/>
-    <x:col min="33" max="33" width="15.710938" style="58" customWidth="1"/>
-    <x:col min="34" max="34" width="11.425781" style="57" customWidth="1"/>
-    <x:col min="35" max="35" width="21.710938" style="57" customWidth="1"/>
-    <x:col min="36" max="36" width="15.710938" style="49" customWidth="1"/>
-    <x:col min="37" max="16384" width="11.425781" style="49" customWidth="1"/>
+    <x:col min="1" max="4" width="8.710938" style="54" customWidth="1"/>
+    <x:col min="5" max="5" width="14.425781" style="54" customWidth="1"/>
+    <x:col min="6" max="6" width="7.570312" style="54" customWidth="1"/>
+    <x:col min="7" max="7" width="10.285156" style="54" customWidth="1"/>
+    <x:col min="8" max="8" width="15.710938" style="55" customWidth="1"/>
+    <x:col min="9" max="10" width="11.710938" style="48" customWidth="1"/>
+    <x:col min="11" max="11" width="6.710938" style="49" customWidth="1"/>
+    <x:col min="12" max="13" width="13.710938" style="49" customWidth="1"/>
+    <x:col min="14" max="14" width="5" style="48" customWidth="1"/>
+    <x:col min="15" max="15" width="11.855469" style="48" customWidth="1"/>
+    <x:col min="16" max="16" width="15.710938" style="49" customWidth="1"/>
+    <x:col min="17" max="17" width="45.710938" style="49" customWidth="1"/>
+    <x:col min="18" max="18" width="10.425781" style="48" customWidth="1"/>
+    <x:col min="19" max="19" width="14" style="48" customWidth="1"/>
+    <x:col min="20" max="20" width="10.425781" style="48" customWidth="1"/>
+    <x:col min="21" max="22" width="15.710938" style="51" customWidth="1"/>
+    <x:col min="23" max="23" width="7" style="52" customWidth="1"/>
+    <x:col min="24" max="24" width="15.710938" style="51" customWidth="1"/>
+    <x:col min="25" max="25" width="14.140625" style="52" customWidth="1"/>
+    <x:col min="26" max="26" width="15.710938" style="51" customWidth="1"/>
+    <x:col min="27" max="27" width="11.710938" style="48" customWidth="1"/>
+    <x:col min="28" max="28" width="15.710938" style="51" customWidth="1"/>
+    <x:col min="29" max="29" width="15.710938" style="48" customWidth="1"/>
+    <x:col min="30" max="30" width="35.710938" style="49" customWidth="1"/>
+    <x:col min="31" max="32" width="13.855469" style="55" customWidth="1"/>
+    <x:col min="33" max="33" width="15.710938" style="55" customWidth="1"/>
+    <x:col min="34" max="34" width="11.425781" style="54" customWidth="1"/>
+    <x:col min="35" max="35" width="21.710938" style="54" customWidth="1"/>
+    <x:col min="36" max="36" width="15.710938" style="46" customWidth="1"/>
+    <x:col min="37" max="16384" width="11.425781" style="46" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="AA1" s="53"/>
-      <x:c r="AK1" s="49" t="s">
+    <x:row r="1" spans="1:37" ht="15.75" customHeight="1">
+      <x:c r="AA1" s="50"/>
+      <x:c r="AK1" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:37" ht="15" customHeight="1" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="86" t="s">
+    <x:row r="2" spans="1:37" ht="15" customHeight="1" s="47" customFormat="1">
+      <x:c r="A2" s="85" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="87"/>
-      <x:c r="C2" s="88" t="s">
+      <x:c r="B2" s="86"/>
+      <x:c r="C2" s="85" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="89"/>
-      <x:c r="E2" s="90"/>
-      <x:c r="F2" s="91" t="s">
+      <x:c r="D2" s="87"/>
+      <x:c r="E2" s="86"/>
+      <x:c r="F2" s="88" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G2" s="92" t="s">
+      <x:c r="G2" s="89" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H2" s="92" t="s">
+      <x:c r="H2" s="89" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="93" t="s">
+      <x:c r="I2" s="90" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="J2" s="93" t="s">
+      <x:c r="J2" s="90" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="K2" s="94" t="s">
+      <x:c r="K2" s="91" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="L2" s="95"/>
-      <x:c r="M2" s="96"/>
-      <x:c r="N2" s="94" t="s">
+      <x:c r="L2" s="92"/>
+      <x:c r="M2" s="93"/>
+      <x:c r="N2" s="91" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="O2" s="97"/>
-      <x:c r="P2" s="98"/>
-      <x:c r="Q2" s="93" t="s">
+      <x:c r="O2" s="92"/>
+      <x:c r="P2" s="93"/>
+      <x:c r="Q2" s="90" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="R2" s="99" t="s">
+      <x:c r="R2" s="94" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="S2" s="100" t="s">
+      <x:c r="S2" s="94" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="T2" s="100" t="s">
+      <x:c r="T2" s="94" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="U2" s="93" t="s">
+      <x:c r="U2" s="90" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="V2" s="93" t="s">
+      <x:c r="V2" s="90" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="W2" s="93" t="s">
+      <x:c r="W2" s="90" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="X2" s="93" t="s">
+      <x:c r="X2" s="90" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="Y2" s="93" t="s">
+      <x:c r="Y2" s="90" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="Z2" s="93" t="s">
+      <x:c r="Z2" s="90" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="AA2" s="101" t="s">
+      <x:c r="AA2" s="95" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="AB2" s="97"/>
-      <x:c r="AC2" s="97"/>
-      <x:c r="AD2" s="98"/>
-      <x:c r="AE2" s="92" t="s">
+      <x:c r="AB2" s="96"/>
+      <x:c r="AC2" s="96"/>
+      <x:c r="AD2" s="97"/>
+      <x:c r="AE2" s="89" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="AF2" s="92" t="s">
+      <x:c r="AF2" s="89" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="AG2" s="92" t="s">
+      <x:c r="AG2" s="89" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="AH2" s="102" t="s">
+      <x:c r="AH2" s="98" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="AI2" s="103"/>
-      <x:c r="AJ2" s="104" t="s">
+      <x:c r="AI2" s="99"/>
+      <x:c r="AJ2" s="89" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="AK2" s="50" t="s">
+      <x:c r="AK2" s="47" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:37" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="105" t="s">
+    <x:row r="3" spans="1:37" s="47" customFormat="1">
+      <x:c r="A3" s="100" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B3" s="106" t="s">
+      <x:c r="B3" s="101" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C3" s="107" t="s">
+      <x:c r="C3" s="102" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D3" s="108" t="s">
+      <x:c r="D3" s="103" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="E3" s="109" t="s">
+      <x:c r="E3" s="104" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F3" s="110"/>
-      <x:c r="G3" s="111"/>
-      <x:c r="H3" s="111"/>
-      <x:c r="I3" s="112"/>
-      <x:c r="J3" s="112"/>
-      <x:c r="K3" s="113" t="s">
+      <x:c r="F3" s="105"/>
+      <x:c r="G3" s="106"/>
+      <x:c r="H3" s="106"/>
+      <x:c r="I3" s="107"/>
+      <x:c r="J3" s="107"/>
+      <x:c r="K3" s="108" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="L3" s="114" t="s">
+      <x:c r="L3" s="109" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="M3" s="115" t="s">
+      <x:c r="M3" s="110" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="N3" s="113" t="s">
+      <x:c r="N3" s="108" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="O3" s="114" t="s">
+      <x:c r="O3" s="109" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="P3" s="115" t="s">
+      <x:c r="P3" s="110" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="Q3" s="116"/>
-      <x:c r="R3" s="117"/>
-      <x:c r="S3" s="118"/>
-      <x:c r="T3" s="118"/>
-      <x:c r="U3" s="119"/>
-      <x:c r="V3" s="116"/>
-      <x:c r="W3" s="116"/>
-      <x:c r="X3" s="116"/>
-      <x:c r="Y3" s="116"/>
-      <x:c r="Z3" s="112"/>
-      <x:c r="AA3" s="120" t="s">
+      <x:c r="Q3" s="107"/>
+      <x:c r="R3" s="111"/>
+      <x:c r="S3" s="111"/>
+      <x:c r="T3" s="111"/>
+      <x:c r="U3" s="107"/>
+      <x:c r="V3" s="107"/>
+      <x:c r="W3" s="107"/>
+      <x:c r="X3" s="107"/>
+      <x:c r="Y3" s="107"/>
+      <x:c r="Z3" s="107"/>
+      <x:c r="AA3" s="112" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AB3" s="121" t="s">
+      <x:c r="AB3" s="113" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AC3" s="121" t="s">
+      <x:c r="AC3" s="113" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AD3" s="122" t="s">
+      <x:c r="AD3" s="114" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="AE3" s="111"/>
-      <x:c r="AF3" s="111"/>
-      <x:c r="AG3" s="111"/>
-      <x:c r="AH3" s="123" t="s">
+      <x:c r="AE3" s="106"/>
+      <x:c r="AF3" s="106"/>
+      <x:c r="AG3" s="106"/>
+      <x:c r="AH3" s="115" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="AI3" s="124" t="s">
+      <x:c r="AI3" s="116" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="AJ3" s="125"/>
-      <x:c r="AK3" s="50" t="s">
+      <x:c r="AJ3" s="117"/>
+      <x:c r="AK3" s="47" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="57">
+    <x:row r="4" spans="1:37">
+      <x:c r="A4" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B4" s="57" t="s">
+      <x:c r="B4" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C4" s="57" t="s">
+      <x:c r="C4" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D4" s="57">
+      <x:c r="D4" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="57">
+      <x:c r="E4" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F4" s="57" t="s">
+      <x:c r="F4" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I4" s="72">
+      <x:c r="I4" s="118">
         <x:v>45417</x:v>
       </x:c>
-      <x:c r="K4" s="52" t="s">
+      <x:c r="K4" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L4" s="52">
+      <x:c r="L4" s="49">
         <x:v>17508</x:v>
       </x:c>
-      <x:c r="O4" s="51" t="s">
+      <x:c r="O4" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P4" s="52" t="s">
+      <x:c r="P4" s="49" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="Q4" s="52" t="s">
+      <x:c r="Q4" s="49" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="S4" s="51" t="s">
+      <x:c r="S4" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U4" s="73">
+      <x:c r="U4" s="119">
         <x:v>8252</x:v>
       </x:c>
-      <x:c r="V4" s="73">
+      <x:c r="V4" s="119">
         <x:v>7502</x:v>
       </x:c>
-      <x:c r="W4" s="55">
+      <x:c r="W4" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X4" s="73">
+      <x:c r="X4" s="119">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="AK4" s="49" t="s">
+      <x:c r="AK4" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="57">
+    <x:row r="5" spans="1:37">
+      <x:c r="A5" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B5" s="57" t="s">
+      <x:c r="B5" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C5" s="57" t="s">
+      <x:c r="C5" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D5" s="57">
+      <x:c r="D5" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="57">
+      <x:c r="E5" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F5" s="57" t="s">
+      <x:c r="F5" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I5" s="72">
+      <x:c r="I5" s="118">
         <x:v>45417</x:v>
       </x:c>
-      <x:c r="K5" s="52" t="s">
+      <x:c r="K5" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L5" s="52">
+      <x:c r="L5" s="49">
         <x:v>17509</x:v>
       </x:c>
-      <x:c r="O5" s="51" t="s">
+      <x:c r="O5" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P5" s="52" t="s">
+      <x:c r="P5" s="49" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="Q5" s="52" t="s">
+      <x:c r="Q5" s="49" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="S5" s="51" t="s">
+      <x:c r="S5" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U5" s="73">
+      <x:c r="U5" s="119">
         <x:v>3297</x:v>
       </x:c>
-      <x:c r="V5" s="73">
+      <x:c r="V5" s="119">
         <x:v>2997</x:v>
       </x:c>
-      <x:c r="W5" s="55">
+      <x:c r="W5" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X5" s="54">
+      <x:c r="X5" s="51">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="AK5" s="49" t="s">
+      <x:c r="AK5" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="57">
+    <x:row r="6" spans="1:37">
+      <x:c r="A6" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B6" s="57" t="s">
+      <x:c r="B6" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C6" s="57" t="s">
+      <x:c r="C6" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D6" s="57">
+      <x:c r="D6" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E6" s="57">
+      <x:c r="E6" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F6" s="57" t="s">
+      <x:c r="F6" s="54" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="I6" s="72">
+      <x:c r="I6" s="118">
         <x:v>45417</x:v>
       </x:c>
-      <x:c r="K6" s="52" t="s">
+      <x:c r="K6" s="49" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="L6" s="52">
+      <x:c r="L6" s="49">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="M6" s="52">
+      <x:c r="M6" s="49">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="O6" s="51" t="s">
+      <x:c r="O6" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P6" s="52" t="s">
+      <x:c r="P6" s="49" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="Q6" s="52" t="s">
+      <x:c r="Q6" s="49" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="S6" s="51" t="s">
+      <x:c r="S6" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U6" s="73">
+      <x:c r="U6" s="119">
         <x:v>188335</x:v>
       </x:c>
-      <x:c r="V6" s="73">
+      <x:c r="V6" s="119">
         <x:v>171212</x:v>
       </x:c>
-      <x:c r="W6" s="55">
+      <x:c r="W6" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X6" s="73">
+      <x:c r="X6" s="119">
         <x:v>17123</x:v>
       </x:c>
-      <x:c r="AK6" s="49" t="s">
+      <x:c r="AK6" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="57">
+    <x:row r="7" spans="1:37">
+      <x:c r="A7" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B7" s="57" t="s">
+      <x:c r="B7" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C7" s="57" t="s">
+      <x:c r="C7" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D7" s="57">
+      <x:c r="D7" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E7" s="57">
+      <x:c r="E7" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F7" s="57" t="s">
+      <x:c r="F7" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I7" s="72">
+      <x:c r="I7" s="118">
         <x:v>45418</x:v>
       </x:c>
-      <x:c r="K7" s="52" t="s">
+      <x:c r="K7" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L7" s="52">
+      <x:c r="L7" s="49">
         <x:v>17511</x:v>
       </x:c>
-      <x:c r="O7" s="51" t="s">
+      <x:c r="O7" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P7" s="52" t="s">
+      <x:c r="P7" s="49" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="Q7" s="52" t="s">
+      <x:c r="Q7" s="49" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="S7" s="51" t="s">
+      <x:c r="S7" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U7" s="73">
+      <x:c r="U7" s="119">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="V7" s="73">
+      <x:c r="V7" s="119">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="W7" s="55">
+      <x:c r="W7" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X7" s="73">
+      <x:c r="X7" s="119">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="AK7" s="49" t="s">
+      <x:c r="AK7" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="57">
+    <x:row r="8" spans="1:37">
+      <x:c r="A8" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B8" s="57" t="s">
+      <x:c r="B8" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C8" s="57" t="s">
+      <x:c r="C8" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D8" s="57">
+      <x:c r="D8" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E8" s="57">
+      <x:c r="E8" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F8" s="57" t="s">
+      <x:c r="F8" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I8" s="72">
+      <x:c r="I8" s="118">
         <x:v>45418</x:v>
       </x:c>
-      <x:c r="K8" s="52" t="s">
+      <x:c r="K8" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L8" s="52">
+      <x:c r="L8" s="49">
         <x:v>17512</x:v>
       </x:c>
-      <x:c r="O8" s="51" t="s">
+      <x:c r="O8" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P8" s="52" t="s">
+      <x:c r="P8" s="49" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="Q8" s="52" t="s">
+      <x:c r="Q8" s="49" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="S8" s="51" t="s">
+      <x:c r="S8" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U8" s="73">
+      <x:c r="U8" s="119">
         <x:v>4607</x:v>
       </x:c>
-      <x:c r="V8" s="73">
+      <x:c r="V8" s="119">
         <x:v>4188</x:v>
       </x:c>
-      <x:c r="W8" s="55">
+      <x:c r="W8" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X8" s="73">
+      <x:c r="X8" s="119">
         <x:v>419</x:v>
       </x:c>
-      <x:c r="AK8" s="49" t="s">
+      <x:c r="AK8" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="57">
+    <x:row r="9" spans="1:37">
+      <x:c r="A9" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B9" s="57" t="s">
+      <x:c r="B9" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C9" s="57" t="s">
+      <x:c r="C9" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D9" s="57">
+      <x:c r="D9" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E9" s="57">
+      <x:c r="E9" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F9" s="57" t="s">
+      <x:c r="F9" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I9" s="72">
+      <x:c r="I9" s="118">
         <x:v>45418</x:v>
       </x:c>
-      <x:c r="K9" s="52" t="s">
+      <x:c r="K9" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L9" s="52">
+      <x:c r="L9" s="49">
         <x:v>17513</x:v>
       </x:c>
-      <x:c r="O9" s="51" t="s">
+      <x:c r="O9" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P9" s="52" t="s">
+      <x:c r="P9" s="49" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="Q9" s="52" t="s">
+      <x:c r="Q9" s="49" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="S9" s="51" t="s">
+      <x:c r="S9" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U9" s="54">
+      <x:c r="U9" s="51">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="V9" s="73">
+      <x:c r="V9" s="119">
         <x:v>6455</x:v>
       </x:c>
-      <x:c r="W9" s="55">
+      <x:c r="W9" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X9" s="73">
+      <x:c r="X9" s="119">
         <x:v>645</x:v>
       </x:c>
-      <x:c r="AK9" s="49" t="s">
+      <x:c r="AK9" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="57">
+    <x:row r="10" spans="1:37">
+      <x:c r="A10" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B10" s="57" t="s">
+      <x:c r="B10" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C10" s="57" t="s">
+      <x:c r="C10" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D10" s="57">
+      <x:c r="D10" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E10" s="57">
+      <x:c r="E10" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F10" s="57" t="s">
+      <x:c r="F10" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I10" s="72">
+      <x:c r="I10" s="118">
         <x:v>45418</x:v>
       </x:c>
-      <x:c r="K10" s="52" t="s">
+      <x:c r="K10" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L10" s="52">
+      <x:c r="L10" s="49">
         <x:v>17514</x:v>
       </x:c>
-      <x:c r="O10" s="51" t="s">
+      <x:c r="O10" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P10" s="52" t="s">
+      <x:c r="P10" s="49" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="Q10" s="52" t="s">
+      <x:c r="Q10" s="49" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="S10" s="51" t="s">
+      <x:c r="S10" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U10" s="73">
+      <x:c r="U10" s="119">
         <x:v>5213</x:v>
       </x:c>
-      <x:c r="V10" s="73">
+      <x:c r="V10" s="119">
         <x:v>4739</x:v>
       </x:c>
-      <x:c r="W10" s="55">
+      <x:c r="W10" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X10" s="73">
+      <x:c r="X10" s="119">
         <x:v>474</x:v>
       </x:c>
-      <x:c r="AK10" s="49" t="s">
+      <x:c r="AK10" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="57">
+    <x:row r="11" spans="1:37">
+      <x:c r="A11" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B11" s="57" t="s">
+      <x:c r="B11" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C11" s="57" t="s">
+      <x:c r="C11" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D11" s="57">
+      <x:c r="D11" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E11" s="57">
+      <x:c r="E11" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F11" s="57" t="s">
+      <x:c r="F11" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I11" s="72">
+      <x:c r="I11" s="118">
         <x:v>45418</x:v>
       </x:c>
-      <x:c r="K11" s="52" t="s">
+      <x:c r="K11" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L11" s="52">
+      <x:c r="L11" s="49">
         <x:v>17515</x:v>
       </x:c>
-      <x:c r="O11" s="51" t="s">
+      <x:c r="O11" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P11" s="52" t="s">
+      <x:c r="P11" s="49" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="Q11" s="52" t="s">
+      <x:c r="Q11" s="49" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="S11" s="51" t="s">
+      <x:c r="S11" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U11" s="73">
+      <x:c r="U11" s="119">
         <x:v>8999</x:v>
       </x:c>
-      <x:c r="V11" s="73">
+      <x:c r="V11" s="119">
         <x:v>8181</x:v>
       </x:c>
-      <x:c r="W11" s="55">
+      <x:c r="W11" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X11" s="73">
+      <x:c r="X11" s="119">
         <x:v>818</x:v>
       </x:c>
-      <x:c r="AK11" s="49" t="s">
+      <x:c r="AK11" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="57">
+    <x:row r="12" spans="1:37">
+      <x:c r="A12" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B12" s="57" t="s">
+      <x:c r="B12" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C12" s="57" t="s">
+      <x:c r="C12" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D12" s="57">
+      <x:c r="D12" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E12" s="57">
+      <x:c r="E12" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F12" s="57" t="s">
+      <x:c r="F12" s="54" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="I12" s="72">
+      <x:c r="I12" s="118">
         <x:v>45418</x:v>
       </x:c>
-      <x:c r="K12" s="52" t="s">
+      <x:c r="K12" s="49" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="L12" s="52">
+      <x:c r="L12" s="49">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="M12" s="52">
+      <x:c r="M12" s="49">
         <x:v>278</x:v>
       </x:c>
-      <x:c r="O12" s="51" t="s">
+      <x:c r="O12" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P12" s="52" t="s">
+      <x:c r="P12" s="49" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="Q12" s="52" t="s">
+      <x:c r="Q12" s="49" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="S12" s="51" t="s">
+      <x:c r="S12" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U12" s="73">
+      <x:c r="U12" s="119">
         <x:v>541156</x:v>
       </x:c>
-      <x:c r="V12" s="73">
+      <x:c r="V12" s="119">
         <x:v>49196</x:v>
       </x:c>
-      <x:c r="W12" s="55">
+      <x:c r="W12" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X12" s="73">
+      <x:c r="X12" s="119">
         <x:v>49196</x:v>
       </x:c>
-      <x:c r="AK12" s="49" t="s">
+      <x:c r="AK12" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="57">
+    <x:row r="13" spans="1:37">
+      <x:c r="A13" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B13" s="57" t="s">
+      <x:c r="B13" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C13" s="57" t="s">
+      <x:c r="C13" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D13" s="57">
+      <x:c r="D13" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E13" s="57">
+      <x:c r="E13" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F13" s="57" t="s">
+      <x:c r="F13" s="54" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="I13" s="72">
+      <x:c r="I13" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K13" s="52" t="s">
+      <x:c r="K13" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L13" s="52">
+      <x:c r="L13" s="49">
         <x:v>17516</x:v>
       </x:c>
-      <x:c r="O13" s="51" t="s">
+      <x:c r="O13" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="S13" s="51" t="s">
+      <x:c r="S13" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U13" s="73">
+      <x:c r="U13" s="119">
         <x:v>335909</x:v>
       </x:c>
-      <x:c r="V13" s="73">
+      <x:c r="V13" s="119">
         <x:v>305372</x:v>
       </x:c>
-      <x:c r="W13" s="55">
+      <x:c r="W13" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X13" s="73">
+      <x:c r="X13" s="119">
         <x:v>30537</x:v>
       </x:c>
-      <x:c r="AK13" s="49" t="s">
+      <x:c r="AK13" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="57">
+    <x:row r="14" spans="1:37">
+      <x:c r="A14" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B14" s="57" t="s">
+      <x:c r="B14" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C14" s="57" t="s">
+      <x:c r="C14" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D14" s="57">
+      <x:c r="D14" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E14" s="57">
+      <x:c r="E14" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F14" s="57" t="s">
+      <x:c r="F14" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I14" s="72">
+      <x:c r="I14" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K14" s="52" t="s">
+      <x:c r="K14" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L14" s="52">
+      <x:c r="L14" s="49">
         <x:v>17517</x:v>
       </x:c>
-      <x:c r="N14" s="51">
+      <x:c r="N14" s="48">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="O14" s="51">
+      <x:c r="O14" s="48">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="P14" s="52">
+      <x:c r="P14" s="49">
         <x:v>814216744</x:v>
       </x:c>
-      <x:c r="Q14" s="52" t="s">
+      <x:c r="Q14" s="49" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="S14" s="51" t="s">
+      <x:c r="S14" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U14" s="73">
+      <x:c r="U14" s="119">
         <x:v>444357</x:v>
       </x:c>
-      <x:c r="V14" s="73">
+      <x:c r="V14" s="119">
         <x:v>403961</x:v>
       </x:c>
-      <x:c r="W14" s="55">
+      <x:c r="W14" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X14" s="73">
+      <x:c r="X14" s="119">
         <x:v>40396</x:v>
       </x:c>
-      <x:c r="AK14" s="49" t="s">
+      <x:c r="AK14" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="57">
+    <x:row r="15" spans="1:37">
+      <x:c r="A15" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B15" s="57" t="s">
+      <x:c r="B15" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C15" s="57" t="s">
+      <x:c r="C15" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D15" s="57">
+      <x:c r="D15" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E15" s="57">
+      <x:c r="E15" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F15" s="57" t="s">
+      <x:c r="F15" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I15" s="72">
+      <x:c r="I15" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K15" s="52" t="s">
+      <x:c r="K15" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L15" s="52">
+      <x:c r="L15" s="49">
         <x:v>17518</x:v>
       </x:c>
-      <x:c r="O15" s="51" t="s">
+      <x:c r="O15" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P15" s="52" t="s">
+      <x:c r="P15" s="49" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="Q15" s="52" t="s">
+      <x:c r="Q15" s="49" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="S15" s="51" t="s">
+      <x:c r="S15" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U15" s="73">
+      <x:c r="U15" s="119">
         <x:v>4915</x:v>
       </x:c>
-      <x:c r="V15" s="73">
+      <x:c r="V15" s="119">
         <x:v>4468</x:v>
       </x:c>
-      <x:c r="W15" s="55">
+      <x:c r="W15" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X15" s="73">
+      <x:c r="X15" s="119">
         <x:v>447</x:v>
       </x:c>
-      <x:c r="AK15" s="49" t="s">
+      <x:c r="AK15" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="57">
+    <x:row r="16" spans="1:37">
+      <x:c r="A16" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B16" s="57" t="s">
+      <x:c r="B16" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C16" s="57" t="s">
+      <x:c r="C16" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D16" s="57">
+      <x:c r="D16" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E16" s="57">
+      <x:c r="E16" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F16" s="57" t="s">
+      <x:c r="F16" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I16" s="72">
+      <x:c r="I16" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K16" s="52" t="s">
+      <x:c r="K16" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L16" s="52">
+      <x:c r="L16" s="49">
         <x:v>17519</x:v>
       </x:c>
-      <x:c r="O16" s="51" t="s">
+      <x:c r="O16" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P16" s="52" t="s">
+      <x:c r="P16" s="49" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="Q16" s="52" t="s">
+      <x:c r="Q16" s="49" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="S16" s="51" t="s">
+      <x:c r="S16" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U16" s="73">
+      <x:c r="U16" s="119">
         <x:v>4507</x:v>
       </x:c>
-      <x:c r="V16" s="73">
+      <x:c r="V16" s="119">
         <x:v>4097</x:v>
       </x:c>
-      <x:c r="W16" s="55">
+      <x:c r="W16" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X16" s="73">
+      <x:c r="X16" s="119">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="AK16" s="49" t="s">
+      <x:c r="AK16" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="57">
+    <x:row r="17" spans="1:37">
+      <x:c r="A17" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B17" s="57" t="s">
+      <x:c r="B17" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C17" s="57" t="s">
+      <x:c r="C17" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D17" s="57">
+      <x:c r="D17" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E17" s="57">
+      <x:c r="E17" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F17" s="57" t="s">
+      <x:c r="F17" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I17" s="72">
+      <x:c r="I17" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K17" s="52" t="s">
+      <x:c r="K17" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L17" s="52">
+      <x:c r="L17" s="49">
         <x:v>17520</x:v>
       </x:c>
-      <x:c r="O17" s="51" t="s">
+      <x:c r="O17" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P17" s="52" t="s">
+      <x:c r="P17" s="49" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="Q17" s="52" t="s">
+      <x:c r="Q17" s="49" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="S17" s="51" t="s">
+      <x:c r="S17" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U17" s="73">
+      <x:c r="U17" s="119">
         <x:v>5911</x:v>
       </x:c>
-      <x:c r="V17" s="73">
+      <x:c r="V17" s="119">
         <x:v>5374</x:v>
       </x:c>
-      <x:c r="W17" s="55">
+      <x:c r="W17" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X17" s="73">
+      <x:c r="X17" s="119">
         <x:v>537</x:v>
       </x:c>
-      <x:c r="AK17" s="49" t="s">
+      <x:c r="AK17" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="57">
+    <x:row r="18" spans="1:37">
+      <x:c r="A18" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B18" s="57" t="s">
+      <x:c r="B18" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C18" s="57" t="s">
+      <x:c r="C18" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D18" s="57">
+      <x:c r="D18" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E18" s="57">
+      <x:c r="E18" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F18" s="57" t="s">
+      <x:c r="F18" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I18" s="72">
+      <x:c r="I18" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K18" s="52" t="s">
+      <x:c r="K18" s="49" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="L18" s="52">
+      <x:c r="L18" s="49">
         <x:v>17521</x:v>
       </x:c>
-      <x:c r="O18" s="51" t="s">
+      <x:c r="O18" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P18" s="52" t="s">
+      <x:c r="P18" s="49" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="Q18" s="52" t="s">
+      <x:c r="Q18" s="49" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="S18" s="51" t="s">
+      <x:c r="S18" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U18" s="73">
+      <x:c r="U18" s="119">
         <x:v>4265</x:v>
       </x:c>
-      <x:c r="V18" s="73">
+      <x:c r="V18" s="119">
         <x:v>3877</x:v>
       </x:c>
-      <x:c r="W18" s="55">
+      <x:c r="W18" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X18" s="73">
+      <x:c r="X18" s="119">
         <x:v>388</x:v>
       </x:c>
-      <x:c r="AK18" s="49" t="s">
+      <x:c r="AK18" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="57">
+    <x:row r="19" spans="1:37">
+      <x:c r="A19" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B19" s="57" t="s">
+      <x:c r="B19" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C19" s="57" t="s">
+      <x:c r="C19" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D19" s="57">
+      <x:c r="D19" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E19" s="57">
+      <x:c r="E19" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F19" s="57" t="s">
+      <x:c r="F19" s="54" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="I19" s="72">
+      <x:c r="I19" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K19" s="52" t="s">
+      <x:c r="K19" s="49" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="L19" s="52">
+      <x:c r="L19" s="49">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M19" s="52">
+      <x:c r="M19" s="49">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="O19" s="51" t="s">
+      <x:c r="O19" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P19" s="52" t="s">
+      <x:c r="P19" s="49" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="Q19" s="52" t="s">
+      <x:c r="Q19" s="49" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="S19" s="51" t="s">
+      <x:c r="S19" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U19" s="73">
+      <x:c r="U19" s="119">
         <x:v>605875</x:v>
       </x:c>
-      <x:c r="V19" s="73">
+      <x:c r="V19" s="119">
         <x:v>550789</x:v>
       </x:c>
-      <x:c r="W19" s="55">
+      <x:c r="W19" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X19" s="73">
+      <x:c r="X19" s="119">
         <x:v>55086</x:v>
       </x:c>
-      <x:c r="AK19" s="49" t="s">
+      <x:c r="AK19" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="57">
+    <x:row r="20" spans="1:37">
+      <x:c r="A20" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B20" s="57" t="s">
+      <x:c r="B20" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C20" s="57" t="s">
+      <x:c r="C20" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D20" s="57">
+      <x:c r="D20" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E20" s="57">
+      <x:c r="E20" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F20" s="57" t="s">
+      <x:c r="F20" s="54" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="I20" s="72">
+      <x:c r="I20" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K20" s="52" t="s">
+      <x:c r="K20" s="49" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="L20" s="52">
+      <x:c r="L20" s="49">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="M20" s="52">
+      <x:c r="M20" s="49">
         <x:v>313</x:v>
       </x:c>
-      <x:c r="O20" s="51" t="s">
+      <x:c r="O20" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P20" s="52" t="s">
+      <x:c r="P20" s="49" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="Q20" s="52" t="s">
+      <x:c r="Q20" s="49" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="S20" s="51" t="s">
+      <x:c r="S20" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U20" s="73">
+      <x:c r="U20" s="119">
         <x:v>605875</x:v>
       </x:c>
-      <x:c r="V20" s="73">
+      <x:c r="V20" s="119">
         <x:v>550789</x:v>
       </x:c>
-      <x:c r="W20" s="55">
+      <x:c r="W20" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X20" s="73">
+      <x:c r="X20" s="119">
         <x:v>55086</x:v>
       </x:c>
-      <x:c r="AK20" s="49" t="s">
+      <x:c r="AK20" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A21" s="57">
+    <x:row r="21" spans="1:37">
+      <x:c r="A21" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B21" s="57" t="s">
+      <x:c r="B21" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C21" s="57" t="s">
+      <x:c r="C21" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D21" s="57">
+      <x:c r="D21" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E21" s="57">
+      <x:c r="E21" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F21" s="57" t="s">
+      <x:c r="F21" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I21" s="72">
+      <x:c r="I21" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K21" s="52" t="s">
+      <x:c r="K21" s="49" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="L21" s="52">
+      <x:c r="L21" s="49">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O21" s="51" t="s">
+      <x:c r="O21" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P21" s="52" t="s">
+      <x:c r="P21" s="49" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="Q21" s="52" t="s">
+      <x:c r="Q21" s="49" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="S21" s="51" t="s">
+      <x:c r="S21" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U21" s="73">
+      <x:c r="U21" s="119">
         <x:v>-6989</x:v>
       </x:c>
-      <x:c r="V21" s="73">
+      <x:c r="V21" s="119">
         <x:v>-6354</x:v>
       </x:c>
-      <x:c r="W21" s="55">
+      <x:c r="W21" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X21" s="73">
+      <x:c r="X21" s="119">
         <x:v>-635</x:v>
       </x:c>
-      <x:c r="AK21" s="49" t="s">
+      <x:c r="AK21" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <x:c r="A22" s="57">
+    <x:row r="22" spans="1:37">
+      <x:c r="A22" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B22" s="57" t="s">
+      <x:c r="B22" s="54" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C22" s="57" t="s">
+      <x:c r="C22" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D22" s="57">
+      <x:c r="D22" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E22" s="57">
+      <x:c r="E22" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F22" s="57" t="s">
+      <x:c r="F22" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I22" s="72">
+      <x:c r="I22" s="118">
         <x:v>45419</x:v>
       </x:c>
-      <x:c r="K22" s="52" t="s">
+      <x:c r="K22" s="49" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="L22" s="52">
+      <x:c r="L22" s="49">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="O22" s="51" t="s">
+      <x:c r="O22" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="P22" s="52" t="s">
+      <x:c r="P22" s="49" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="Q22" s="52" t="s">
+      <x:c r="Q22" s="49" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="S22" s="51" t="s">
+      <x:c r="S22" s="48" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="U22" s="73">
+      <x:c r="U22" s="119">
         <x:v>-6989</x:v>
       </x:c>
-      <x:c r="V22" s="73">
+      <x:c r="V22" s="119">
         <x:v>-6354</x:v>
       </x:c>
-      <x:c r="W22" s="55">
+      <x:c r="W22" s="52">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="X22" s="73">
+      <x:c r="X22" s="119">
         <x:v>-635</x:v>
       </x:c>
-      <x:c r="AK22" s="49" t="s">
+      <x:c r="AK22" s="46" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -3157,14 +3707,21 @@
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <x:pageSetup paperSize="9" scale="65" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
-  <x:headerFooter/>
+  <x:pageSetup paperSize="9" scale="65" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -3176,624 +3733,624 @@
       <x:selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="11.425781" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultColWidth="11.425781" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="4" width="8.710938" style="57" customWidth="1"/>
-    <x:col min="5" max="5" width="14.425781" style="57" customWidth="1"/>
-    <x:col min="6" max="6" width="7.570312" style="57" customWidth="1"/>
-    <x:col min="7" max="7" width="9.425781" style="57" customWidth="1"/>
-    <x:col min="8" max="8" width="15.710938" style="58" customWidth="1"/>
-    <x:col min="9" max="10" width="11.710938" style="51" customWidth="1"/>
-    <x:col min="11" max="11" width="20.710938" style="52" customWidth="1"/>
-    <x:col min="12" max="13" width="15.710938" style="52" customWidth="1"/>
-    <x:col min="14" max="15" width="15.855469" style="52" customWidth="1"/>
-    <x:col min="16" max="16" width="4.855469" style="51" customWidth="1"/>
-    <x:col min="17" max="17" width="11.140625" style="51" customWidth="1"/>
-    <x:col min="18" max="18" width="15.710938" style="52" customWidth="1"/>
-    <x:col min="19" max="19" width="45.710938" style="52" customWidth="1"/>
-    <x:col min="20" max="21" width="10.140625" style="52" customWidth="1"/>
-    <x:col min="22" max="22" width="14" style="52" customWidth="1"/>
-    <x:col min="23" max="23" width="19.570312" style="52" customWidth="1"/>
-    <x:col min="24" max="25" width="15.710938" style="52" customWidth="1"/>
-    <x:col min="26" max="27" width="15.710938" style="54" customWidth="1"/>
-    <x:col min="28" max="28" width="7" style="54" customWidth="1"/>
-    <x:col min="29" max="30" width="15.710938" style="54" customWidth="1"/>
-    <x:col min="31" max="31" width="14.710938" style="54" customWidth="1"/>
-    <x:col min="32" max="32" width="15.710938" style="54" customWidth="1"/>
-    <x:col min="33" max="33" width="11.710938" style="51" customWidth="1"/>
-    <x:col min="34" max="34" width="15.710938" style="54" customWidth="1"/>
-    <x:col min="35" max="35" width="15.710938" style="51" customWidth="1"/>
-    <x:col min="36" max="36" width="35.710938" style="52" customWidth="1"/>
-    <x:col min="37" max="38" width="13.855469" style="58" customWidth="1"/>
-    <x:col min="39" max="39" width="15.710938" style="58" customWidth="1"/>
-    <x:col min="40" max="40" width="11.425781" style="57" customWidth="1"/>
-    <x:col min="41" max="41" width="21.710938" style="57" customWidth="1"/>
-    <x:col min="42" max="42" width="15.710938" style="49" customWidth="1"/>
-    <x:col min="43" max="16384" width="11.425781" style="49" customWidth="1"/>
+    <x:col min="43" max="16384" width="11.425781" style="46" customWidth="1"/>
+    <x:col min="1" max="4" width="8.710938" style="54" customWidth="1"/>
+    <x:col min="5" max="5" width="14.425781" style="54" customWidth="1"/>
+    <x:col min="6" max="6" width="7.570312" style="54" customWidth="1"/>
+    <x:col min="7" max="7" width="9.425781" style="54" customWidth="1"/>
+    <x:col min="8" max="8" width="15.710938" style="55" customWidth="1"/>
+    <x:col min="9" max="10" width="11.710938" style="48" customWidth="1"/>
+    <x:col min="11" max="11" width="20.710938" style="49" customWidth="1"/>
+    <x:col min="12" max="13" width="15.710938" style="49" customWidth="1"/>
+    <x:col min="14" max="15" width="15.855469" style="49" customWidth="1"/>
+    <x:col min="16" max="16" width="4.855469" style="48" customWidth="1"/>
+    <x:col min="17" max="17" width="11.140625" style="48" customWidth="1"/>
+    <x:col min="18" max="18" width="15.710938" style="49" customWidth="1"/>
+    <x:col min="19" max="19" width="45.710938" style="49" customWidth="1"/>
+    <x:col min="20" max="21" width="10.140625" style="49" customWidth="1"/>
+    <x:col min="22" max="22" width="14" style="49" customWidth="1"/>
+    <x:col min="23" max="23" width="19.570312" style="49" customWidth="1"/>
+    <x:col min="24" max="25" width="15.710938" style="49" customWidth="1"/>
+    <x:col min="26" max="27" width="15.710938" style="51" customWidth="1"/>
+    <x:col min="28" max="28" width="7" style="51" customWidth="1"/>
+    <x:col min="29" max="30" width="15.710938" style="51" customWidth="1"/>
+    <x:col min="31" max="31" width="14.710938" style="51" customWidth="1"/>
+    <x:col min="32" max="32" width="15.710938" style="51" customWidth="1"/>
+    <x:col min="33" max="33" width="11.710938" style="48" customWidth="1"/>
+    <x:col min="34" max="34" width="15.710938" style="51" customWidth="1"/>
+    <x:col min="35" max="35" width="15.710938" style="48" customWidth="1"/>
+    <x:col min="36" max="36" width="35.710938" style="49" customWidth="1"/>
+    <x:col min="37" max="38" width="13.855469" style="55" customWidth="1"/>
+    <x:col min="39" max="39" width="15.710938" style="55" customWidth="1"/>
+    <x:col min="40" max="40" width="11.425781" style="54" customWidth="1"/>
+    <x:col min="41" max="41" width="21.710938" style="54" customWidth="1"/>
+    <x:col min="42" max="42" width="15.710938" style="46" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="AQ1" s="49" t="s">
-        <x:v>0</x:v>
+    <x:row r="1" spans="1:43" ht="15.75" customHeight="1">
+      <x:c r="AQ1" s="46" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:43" ht="15" customHeight="1" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="88" t="s">
+    <x:row r="2" spans="1:43" ht="15" customHeight="1" s="53" customFormat="1">
+      <x:c r="A2" s="85" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="90"/>
-      <x:c r="C2" s="88" t="s">
+      <x:c r="B2" s="86"/>
+      <x:c r="C2" s="85" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="89"/>
-      <x:c r="E2" s="90"/>
-      <x:c r="F2" s="126" t="s">
+      <x:c r="D2" s="87"/>
+      <x:c r="E2" s="86"/>
+      <x:c r="F2" s="88" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G2" s="126" t="s">
+      <x:c r="G2" s="88" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H2" s="88" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I2" s="90" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J2" s="90" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K2" s="91" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="L2" s="93"/>
+      <x:c r="M2" s="90" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="N2" s="90" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O2" s="90" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P2" s="91" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="Q2" s="92"/>
+      <x:c r="R2" s="93"/>
+      <x:c r="S2" s="90" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="T2" s="90" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="U2" s="90" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="V2" s="90" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="W2" s="90" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="X2" s="91" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="Y2" s="93"/>
+      <x:c r="Z2" s="90" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="AA2" s="90" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="AB2" s="90" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="AC2" s="90" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="AD2" s="90" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="AE2" s="90" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="AF2" s="90" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="AG2" s="95" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="AH2" s="96"/>
+      <x:c r="AI2" s="96"/>
+      <x:c r="AJ2" s="97"/>
+      <x:c r="AK2" s="88" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="AL2" s="88" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="AM2" s="88" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="AN2" s="98" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="AO2" s="99"/>
+      <x:c r="AP2" s="89" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AQ2" s="53" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="H2" s="126" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I2" s="127" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J2" s="127" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="K2" s="128" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="L2" s="129"/>
-      <x:c r="M2" s="127" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="N2" s="127" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="O2" s="127" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="P2" s="128" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="Q2" s="130"/>
-      <x:c r="R2" s="129"/>
-      <x:c r="S2" s="127" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="T2" s="127" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="U2" s="127" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="V2" s="127" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="W2" s="127" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="X2" s="128" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="Y2" s="129"/>
-      <x:c r="Z2" s="127" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AA2" s="127" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="AB2" s="127" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AC2" s="127" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="AD2" s="127" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="AE2" s="127" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="AF2" s="127" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="AG2" s="131" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="AH2" s="132"/>
-      <x:c r="AI2" s="132"/>
-      <x:c r="AJ2" s="133"/>
-      <x:c r="AK2" s="126" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="AL2" s="126" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="AM2" s="126" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="AN2" s="102" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="AO2" s="103"/>
-      <x:c r="AP2" s="104" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="AQ2" s="56" t="s">
-        <x:v>0</x:v>
-      </x:c>
     </x:row>
-    <x:row r="3" spans="1:43" ht="15" customHeight="1" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="105" t="s">
+    <x:row r="3" spans="1:43" ht="15" customHeight="1" s="53" customFormat="1">
+      <x:c r="A3" s="100" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B3" s="106" t="s">
+      <x:c r="B3" s="101" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C3" s="107" t="s">
+      <x:c r="C3" s="102" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D3" s="108" t="s">
+      <x:c r="D3" s="103" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="E3" s="109" t="s">
+      <x:c r="E3" s="104" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F3" s="134"/>
-      <x:c r="G3" s="134"/>
-      <x:c r="H3" s="134"/>
-      <x:c r="I3" s="135"/>
-      <x:c r="J3" s="135"/>
-      <x:c r="K3" s="120" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="L3" s="122" t="s">
+      <x:c r="F3" s="105"/>
+      <x:c r="G3" s="105"/>
+      <x:c r="H3" s="105"/>
+      <x:c r="I3" s="107"/>
+      <x:c r="J3" s="107"/>
+      <x:c r="K3" s="112" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="L3" s="114" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="M3" s="135"/>
-      <x:c r="N3" s="135"/>
-      <x:c r="O3" s="135"/>
-      <x:c r="P3" s="120" t="s">
+      <x:c r="M3" s="107"/>
+      <x:c r="N3" s="107"/>
+      <x:c r="O3" s="107"/>
+      <x:c r="P3" s="112" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="Q3" s="121" t="s">
+      <x:c r="Q3" s="113" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="R3" s="122" t="s">
+      <x:c r="R3" s="114" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="S3" s="135"/>
-      <x:c r="T3" s="135"/>
-      <x:c r="U3" s="135"/>
-      <x:c r="V3" s="135"/>
-      <x:c r="W3" s="135"/>
-      <x:c r="X3" s="135" t="s">
+      <x:c r="S3" s="107"/>
+      <x:c r="T3" s="107"/>
+      <x:c r="U3" s="107"/>
+      <x:c r="V3" s="107"/>
+      <x:c r="W3" s="107"/>
+      <x:c r="X3" s="107" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="Y3" s="135" t="s">
+      <x:c r="Y3" s="107" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="Z3" s="135"/>
-      <x:c r="AA3" s="135"/>
-      <x:c r="AB3" s="135"/>
-      <x:c r="AC3" s="135"/>
-      <x:c r="AD3" s="135"/>
-      <x:c r="AE3" s="135"/>
-      <x:c r="AF3" s="135"/>
-      <x:c r="AG3" s="120" t="s">
+      <x:c r="Z3" s="107"/>
+      <x:c r="AA3" s="107"/>
+      <x:c r="AB3" s="107"/>
+      <x:c r="AC3" s="107"/>
+      <x:c r="AD3" s="107"/>
+      <x:c r="AE3" s="107"/>
+      <x:c r="AF3" s="107"/>
+      <x:c r="AG3" s="112" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AH3" s="121" t="s">
+      <x:c r="AH3" s="113" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AI3" s="121" t="s">
+      <x:c r="AI3" s="113" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AJ3" s="122" t="s">
+      <x:c r="AJ3" s="114" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="AK3" s="134"/>
-      <x:c r="AL3" s="134"/>
-      <x:c r="AM3" s="134"/>
-      <x:c r="AN3" s="123" t="s">
+      <x:c r="AK3" s="105"/>
+      <x:c r="AL3" s="105"/>
+      <x:c r="AM3" s="105"/>
+      <x:c r="AN3" s="115" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="AO3" s="124" t="s">
+      <x:c r="AO3" s="116" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="AP3" s="125"/>
-      <x:c r="AQ3" s="56" t="s">
-        <x:v>0</x:v>
+      <x:c r="AP3" s="117"/>
+      <x:c r="AQ3" s="53" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="57">
+    <x:row r="4" spans="1:43">
+      <x:c r="A4" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B4" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C4" s="57" t="s">
+      <x:c r="B4" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C4" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D4" s="57">
+      <x:c r="D4" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="57">
+      <x:c r="E4" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F4" s="57" t="s">
+      <x:c r="F4" s="54" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I4" s="72">
+      <x:c r="I4" s="118">
         <x:v>45478</x:v>
       </x:c>
-      <x:c r="K4" s="52">
+      <x:c r="K4" s="49">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M4" s="85">
+      <x:c r="M4" s="138">
         <x:v>45478</x:v>
       </x:c>
-      <x:c r="N4" s="52">
+      <x:c r="N4" s="49">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Q4" s="51" t="s">
+      <x:c r="Q4" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="R4" s="52" t="s">
+      <x:c r="R4" s="49" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S4" s="49" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="U4" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V4" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z4" s="119">
+        <x:v>29161</x:v>
+      </x:c>
+      <x:c r="AA4" s="51">
+        <x:v>2410</x:v>
+      </x:c>
+      <x:c r="AB4" s="51">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC4" s="119">
+        <x:v>5061</x:v>
+      </x:c>
+      <x:c r="AD4" s="119">
+        <x:v>5061</x:v>
+      </x:c>
+      <x:c r="AQ4" s="46" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:43">
+      <x:c r="A5" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B5" s="54" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="S4" s="52" t="s">
+      <x:c r="C5" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D5" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E5" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F5" s="54" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I5" s="118">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K5" s="49">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M5" s="138">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N5" s="49">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q5" s="48" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="S5" s="49" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="U5" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V5" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z5" s="51">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="AA5" s="51">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="AB5" s="51">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC5" s="51">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AD5" s="51">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="AQ5" s="46" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:43">
+      <x:c r="A6" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B6" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C6" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D6" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F6" s="54" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I6" s="118">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K6" s="49">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M6" s="138">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N6" s="49">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="Q6" s="48" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R6" s="49" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="U4" s="52" t="s">
+      <x:c r="S6" s="49" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="V4" s="52" t="s">
+      <x:c r="U6" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V6" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z6" s="51">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="AA6" s="51">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB6" s="51">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC6" s="51">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AD6" s="51">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AQ6" s="46" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:43">
+      <x:c r="A7" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B7" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C7" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D7" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E7" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F7" s="54" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I7" s="118">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K7" s="49">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M7" s="138">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N7" s="49">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q7" s="48" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R7" s="49" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S7" s="49" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="Z4" s="73">
-        <x:v>29161</x:v>
-      </x:c>
-      <x:c r="AA4" s="54">
-        <x:v>2410</x:v>
-      </x:c>
-      <x:c r="AB4" s="54">
+      <x:c r="U7" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V7" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z7" s="51">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="AA7" s="51">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB7" s="51">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="AC4" s="73">
-        <x:v>5061</x:v>
-      </x:c>
-      <x:c r="AD4" s="73">
-        <x:v>5061</x:v>
-      </x:c>
-      <x:c r="AQ4" s="49" t="s">
-        <x:v>0</x:v>
+      <x:c r="AC7" s="51">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AD7" s="51">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AQ7" s="46" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="57">
+    <x:row r="8" spans="1:43">
+      <x:c r="A8" s="54">
         <x:v>2024</x:v>
       </x:c>
-      <x:c r="B5" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="57" t="s">
+      <x:c r="B8" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C8" s="54" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D5" s="57">
+      <x:c r="D8" s="54">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="57">
+      <x:c r="E8" s="54">
         <x:v>8612</x:v>
       </x:c>
-      <x:c r="F5" s="57" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I5" s="72">
+      <x:c r="F8" s="54" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I8" s="118">
         <x:v>45478</x:v>
       </x:c>
-      <x:c r="K5" s="52">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M5" s="85">
+      <x:c r="K8" s="49">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M8" s="138">
         <x:v>45478</x:v>
       </x:c>
-      <x:c r="N5" s="52">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q5" s="51" t="s">
+      <x:c r="N8" s="49">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q8" s="48" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="S5" s="52" t="s">
+      <x:c r="R8" s="49" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S8" s="49" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="U8" s="49" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="U5" s="52" t="s">
+      <x:c r="V8" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z8" s="51">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="AA8" s="51">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB8" s="51">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AC8" s="51">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AD8" s="51">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AQ8" s="46" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:43">
+      <x:c r="A9" s="54">
+        <x:v>2024</x:v>
+      </x:c>
+      <x:c r="B9" s="54" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C9" s="54" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D9" s="54">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="54">
+        <x:v>8612</x:v>
+      </x:c>
+      <x:c r="F9" s="54" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I9" s="118">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="K9" s="49">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="M9" s="138">
+        <x:v>45478</x:v>
+      </x:c>
+      <x:c r="N9" s="49">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Q9" s="48" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="R9" s="49" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="S9" s="49" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="V5" s="52" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z5" s="54">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="AA5" s="54">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="AB5" s="54">
+      <x:c r="U9" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V9" s="49" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Z9" s="51">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="AA9" s="51">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="AB9" s="51">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="AC5" s="54">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AD5" s="54">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AQ5" s="49" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B6" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C6" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D6" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E6" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F6" s="57" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I6" s="72">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K6" s="52">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M6" s="85">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N6" s="52">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q6" s="51" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="R6" s="52" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S6" s="52" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="U6" s="52" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V6" s="52" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z6" s="54">
-        <x:v>1210</x:v>
-      </x:c>
-      <x:c r="AA6" s="54">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AB6" s="54">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC6" s="54">
+      <x:c r="AC9" s="51">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="AD6" s="54">
+      <x:c r="AD9" s="51">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="AQ6" s="49" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B7" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C7" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D7" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E7" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F7" s="57" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I7" s="72">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K7" s="52">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="M7" s="85">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N7" s="52">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="Q7" s="51" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="R7" s="52" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S7" s="52" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="U7" s="52" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V7" s="52" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z7" s="54">
-        <x:v>1210</x:v>
-      </x:c>
-      <x:c r="AA7" s="54">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AB7" s="54">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC7" s="54">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AD7" s="54">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AQ7" s="49" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B8" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C8" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D8" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E8" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F8" s="57" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I8" s="72">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K8" s="52">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M8" s="85">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N8" s="52">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="Q8" s="51" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="R8" s="52" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S8" s="52" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="U8" s="52" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V8" s="52" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z8" s="54">
-        <x:v>1210</x:v>
-      </x:c>
-      <x:c r="AA8" s="54">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AB8" s="54">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC8" s="54">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AD8" s="54">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AQ8" s="49" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B9" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C9" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D9" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E9" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F9" s="57" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I9" s="72">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K9" s="52">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="M9" s="85">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N9" s="52">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="Q9" s="51" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="R9" s="52" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S9" s="52" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="U9" s="52" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V9" s="52" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z9" s="54">
-        <x:v>1210</x:v>
-      </x:c>
-      <x:c r="AA9" s="54">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AB9" s="54">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC9" s="54">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AD9" s="54">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AQ9" s="49" t="s">
-        <x:v>0</x:v>
+      <x:c r="AQ9" s="46" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3833,668 +4390,6 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="65" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:AQ9"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="A4" sqref="A4"/>
-      <x:selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="11.420625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="4" width="8.710938" style="57" customWidth="1"/>
-    <x:col min="5" max="5" width="14.425781" style="57" customWidth="1"/>
-    <x:col min="6" max="6" width="7.710938" style="57" customWidth="1"/>
-    <x:col min="7" max="7" width="30.710938" style="57" customWidth="1"/>
-    <x:col min="8" max="8" width="45.710938" style="57" customWidth="1"/>
-    <x:col min="9" max="9" width="11.710938" style="57" customWidth="1"/>
-    <x:col min="10" max="11" width="15.710938" style="58" customWidth="1"/>
-    <x:col min="12" max="12" width="12.425781" style="57" customWidth="1"/>
-    <x:col min="13" max="13" width="13.285156" style="58" customWidth="1"/>
-    <x:col min="14" max="17" width="18.710938" style="58" customWidth="1"/>
-    <x:col min="18" max="18" width="10.855469" style="57" customWidth="1"/>
-    <x:col min="19" max="20" width="16.710938" style="57" customWidth="1"/>
-    <x:col min="21" max="22" width="15.710938" style="57" customWidth="1"/>
-    <x:col min="23" max="23" width="4.855469" style="57" customWidth="1"/>
-    <x:col min="24" max="24" width="11.140625" style="57" customWidth="1"/>
-    <x:col min="25" max="25" width="15.710938" style="57" customWidth="1"/>
-    <x:col min="26" max="26" width="45.710938" style="57" customWidth="1"/>
-    <x:col min="27" max="27" width="15.710938" style="58" customWidth="1"/>
-    <x:col min="28" max="28" width="11.140625" style="58" customWidth="1"/>
-    <x:col min="29" max="29" width="17.285156" style="58" customWidth="1"/>
-    <x:col min="30" max="30" width="15.710938" style="58" customWidth="1"/>
-    <x:col min="31" max="31" width="17.285156" style="58" customWidth="1"/>
-    <x:col min="32" max="32" width="15.425781" style="58" customWidth="1"/>
-    <x:col min="33" max="33" width="23.140625" style="58" customWidth="1"/>
-    <x:col min="34" max="34" width="11.710938" style="57" customWidth="1"/>
-    <x:col min="35" max="35" width="6.140625" style="57" customWidth="1"/>
-    <x:col min="36" max="36" width="10.710938" style="57" customWidth="1"/>
-    <x:col min="37" max="38" width="18.710938" style="57" customWidth="1"/>
-    <x:col min="39" max="39" width="16.710938" style="0" customWidth="1"/>
-    <x:col min="40" max="40" width="15.710938" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:43" ht="15.75" customHeight="1">
-      <x:c r="AQ1" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:43" ht="15" customHeight="1">
-      <x:c r="A2" s="136" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="137"/>
-      <x:c r="C2" s="88" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D2" s="89"/>
-      <x:c r="E2" s="90"/>
-      <x:c r="F2" s="138" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="G2" s="136" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="H2" s="137"/>
-      <x:c r="I2" s="138" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="J2" s="138" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="K2" s="138" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="L2" s="138" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="M2" s="138" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="N2" s="139" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="O2" s="140"/>
-      <x:c r="P2" s="140"/>
-      <x:c r="Q2" s="141"/>
-      <x:c r="R2" s="138" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S2" s="136" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="T2" s="137"/>
-      <x:c r="U2" s="138" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="V2" s="138" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="W2" s="136" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="X2" s="142"/>
-      <x:c r="Y2" s="137"/>
-      <x:c r="Z2" s="138" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="AA2" s="136" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="AB2" s="142"/>
-      <x:c r="AC2" s="142"/>
-      <x:c r="AD2" s="137"/>
-      <x:c r="AE2" s="136" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="AF2" s="142"/>
-      <x:c r="AG2" s="137"/>
-      <x:c r="AH2" s="136" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="AI2" s="137"/>
-      <x:c r="AJ2" s="136" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="AK2" s="142"/>
-      <x:c r="AL2" s="137"/>
-      <x:c r="AM2" s="138" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="AN2" s="104" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="AQ2" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:43">
-      <x:c r="A3" s="143" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B3" s="144" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="145" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D3" s="108" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E3" s="109" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F3" s="146"/>
-      <x:c r="G3" s="147" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="H3" s="148" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I3" s="146"/>
-      <x:c r="J3" s="146"/>
-      <x:c r="K3" s="146"/>
-      <x:c r="L3" s="146"/>
-      <x:c r="M3" s="146"/>
-      <x:c r="N3" s="149" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="O3" s="150" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="P3" s="150" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="Q3" s="144" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="R3" s="146"/>
-      <x:c r="S3" s="143" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="T3" s="144" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="U3" s="146"/>
-      <x:c r="V3" s="146"/>
-      <x:c r="W3" s="151" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="X3" s="150" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="Y3" s="151" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="Z3" s="146"/>
-      <x:c r="AA3" s="147" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="AB3" s="152" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="AC3" s="152" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="AD3" s="148" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="AE3" s="143" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="AF3" s="149" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="AG3" s="153" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="AH3" s="143" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="AI3" s="151" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="AJ3" s="143" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="AK3" s="149" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AL3" s="153" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="AM3" s="146"/>
-      <x:c r="AN3" s="125"/>
-      <x:c r="AQ3" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:43">
-      <x:c r="A4" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B4" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C4" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D4" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E4" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F4" s="57" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I4" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K4" s="58">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M4" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N4" s="58">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q4" s="58" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="R4" s="57" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S4" s="57" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="U4" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V4" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z4" s="155">
-        <x:v>29161</x:v>
-      </x:c>
-      <x:c r="AA4" s="58">
-        <x:v>2410</x:v>
-      </x:c>
-      <x:c r="AB4" s="58">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC4" s="155">
-        <x:v>5061</x:v>
-      </x:c>
-      <x:c r="AD4" s="155">
-        <x:v>5061</x:v>
-      </x:c>
-      <x:c r="AQ4" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:43">
-      <x:c r="A5" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B5" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C5" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D5" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E5" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F5" s="57" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I5" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K5" s="58">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M5" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N5" s="58">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q5" s="58" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="S5" s="57" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="U5" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V5" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z5" s="57">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="AA5" s="58">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="AB5" s="58">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC5" s="58">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AD5" s="58">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AQ5" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:43">
-      <x:c r="A6" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B6" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C6" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D6" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E6" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F6" s="57" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I6" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K6" s="58">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M6" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N6" s="58">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q6" s="58" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="R6" s="57" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S6" s="57" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="U6" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V6" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z6" s="57">
-        <x:v>1210</x:v>
-      </x:c>
-      <x:c r="AA6" s="58">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AB6" s="58">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC6" s="58">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AD6" s="58">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AQ6" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:43">
-      <x:c r="A7" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B7" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C7" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D7" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E7" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F7" s="57" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I7" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K7" s="58">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="M7" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N7" s="58">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="Q7" s="58" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="R7" s="57" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S7" s="57" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="U7" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V7" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z7" s="57">
-        <x:v>1210</x:v>
-      </x:c>
-      <x:c r="AA7" s="58">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AB7" s="58">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC7" s="58">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AD7" s="58">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AQ7" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:43">
-      <x:c r="A8" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B8" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C8" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D8" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E8" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F8" s="57" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I8" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K8" s="58">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M8" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N8" s="58">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="Q8" s="58" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="R8" s="57" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S8" s="57" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="U8" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V8" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z8" s="57">
-        <x:v>1210</x:v>
-      </x:c>
-      <x:c r="AA8" s="58">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AB8" s="58">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC8" s="58">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AD8" s="58">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AQ8" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:43">
-      <x:c r="A9" s="57">
-        <x:v>2024</x:v>
-      </x:c>
-      <x:c r="B9" s="57" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C9" s="57" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D9" s="57">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E9" s="57">
-        <x:v>8612</x:v>
-      </x:c>
-      <x:c r="F9" s="57" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I9" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="K9" s="58">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="M9" s="154">
-        <x:v>45478</x:v>
-      </x:c>
-      <x:c r="N9" s="58">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="Q9" s="58" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="R9" s="57" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S9" s="57" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="U9" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="V9" s="57" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="Z9" s="57">
-        <x:v>1210</x:v>
-      </x:c>
-      <x:c r="AA9" s="58">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="AB9" s="58">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AC9" s="58">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AD9" s="58">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="AQ9" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="22">
-    <x:mergeCell ref="A2:B2"/>
-    <x:mergeCell ref="C2:E2"/>
-    <x:mergeCell ref="F2:F3"/>
-    <x:mergeCell ref="G2:H2"/>
-    <x:mergeCell ref="I2:I3"/>
-    <x:mergeCell ref="J2:J3"/>
-    <x:mergeCell ref="K2:K3"/>
-    <x:mergeCell ref="L2:L3"/>
-    <x:mergeCell ref="M2:M3"/>
-    <x:mergeCell ref="N2:Q2"/>
-    <x:mergeCell ref="R2:R3"/>
-    <x:mergeCell ref="S2:T2"/>
-    <x:mergeCell ref="U2:U3"/>
-    <x:mergeCell ref="V2:V3"/>
-    <x:mergeCell ref="W2:Y2"/>
-    <x:mergeCell ref="Z2:Z3"/>
-    <x:mergeCell ref="AA2:AD2"/>
-    <x:mergeCell ref="AE2:AG2"/>
-    <x:mergeCell ref="AH2:AI2"/>
-    <x:mergeCell ref="AJ2:AL2"/>
-    <x:mergeCell ref="AM2:AM3"/>
-    <x:mergeCell ref="AN2:AN3"/>
-  </x:mergeCells>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <x:pageSetup paperSize="9" scale="65" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
     <x:oddHeader/>
     <x:oddFooter/>
